--- a/sql/Wedding Guest List_160915.xlsx
+++ b/sql/Wedding Guest List_160915.xlsx
@@ -26,7 +26,6 @@
     <definedName name="Zip">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="623">
   <si>
     <t>Valerie White</t>
   </si>
@@ -2244,8 +2243,8 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5351,7 +5350,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6959,6 +6958,9 @@
       <c r="B62" t="s">
         <v>604</v>
       </c>
+      <c r="C62" t="s">
+        <v>391</v>
+      </c>
       <c r="D62" t="s">
         <v>515</v>
       </c>
